--- a/analysis/qdot/qDotJosh.xlsx
+++ b/analysis/qdot/qDotJosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\work\analysis\qdot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D962EBF-3558-4458-BE6F-00B0994E5086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83347266-F195-4A07-A88C-B9E5CF4EEEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{E18FBB8C-60F8-4CD6-998A-8C3E0D9E7195}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="575">
   <si>
     <t>q7</t>
   </si>
@@ -1747,36 +1747,6 @@
   </si>
   <si>
     <t>[473]CH NIR</t>
-  </si>
-  <si>
-    <t>[470]CH 415</t>
-  </si>
-  <si>
-    <t>[470]CH 445</t>
-  </si>
-  <si>
-    <t>[470]CH 480</t>
-  </si>
-  <si>
-    <t>[470]CH 515</t>
-  </si>
-  <si>
-    <t>[470]CH 555</t>
-  </si>
-  <si>
-    <t>[470]CH 590</t>
-  </si>
-  <si>
-    <t>[470]CH 630</t>
-  </si>
-  <si>
-    <t>[470]CH 680</t>
-  </si>
-  <si>
-    <t>[470]CH CLR</t>
-  </si>
-  <si>
-    <t>[470]CH NIR</t>
   </si>
   <si>
     <t>avg</t>
@@ -2186,29 +2156,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -2553,7 +2523,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -2588,29 +2558,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -2955,7 +2925,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -2990,29 +2960,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -3357,7 +3327,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -3389,32 +3359,32 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40CE7BA-D90C-4974-8E16-6FA97CC33C6E}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>445</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -3436,20 +3406,20 @@
       <c r="H2">
         <v>88</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>566</v>
+      <c r="J2" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="K2">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2">
         <f>AVERAGE(B2,E2,H2,K2)</f>
-        <v>89.25</v>
+        <v>78</v>
       </c>
       <c r="O2">
         <f>_xlfn.STDEV.P(B2,E2,H2,K2)</f>
-        <v>3.6996621467371855</v>
+        <v>16.926310879810757</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.75">
@@ -3471,20 +3441,20 @@
       <c r="H3">
         <v>8456</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>567</v>
+      <c r="J3" s="1" t="s">
+        <v>557</v>
       </c>
       <c r="K3">
-        <v>9000</v>
+        <v>5093</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3">
         <f t="shared" ref="N3:N11" si="0">AVERAGE(B3,E3,H3,K3)</f>
-        <v>8479.25</v>
+        <v>7502.5</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O11" si="1">_xlfn.STDEV.P(B3,E3,H3,K3)</f>
-        <v>489.47286697017233</v>
+        <v>1443.7521428555526</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.75">
@@ -3506,20 +3476,20 @@
       <c r="H4">
         <v>1703</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>568</v>
+      <c r="J4" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="K4">
-        <v>1800</v>
+        <v>934</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>1725.5</v>
+        <v>1509</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>66.394653399200749</v>
+        <v>335.80723637229738</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.75">
@@ -3541,20 +3511,20 @@
       <c r="H5">
         <v>3594</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>569</v>
+      <c r="J5" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="K5">
-        <v>3248</v>
+        <v>1739</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>3546.75</v>
+        <v>3169.5</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>333.13313779928887</v>
+        <v>873.69173625484177</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.75">
@@ -3576,20 +3546,20 @@
       <c r="H6">
         <v>314</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>570</v>
+      <c r="J6" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="K6">
-        <v>296</v>
+        <v>155</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>311.75</v>
+        <v>276.5</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>23.47738273317535</v>
+        <v>73.411511358914282</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.75">
@@ -3611,20 +3581,20 @@
       <c r="H7">
         <v>124</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>571</v>
+      <c r="J7" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="K7">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>112.25</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>4.9497474683058327</v>
+        <v>24.457871943405053</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.75">
@@ -3646,20 +3616,20 @@
       <c r="H8">
         <v>245</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>572</v>
+      <c r="J8" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="K8">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>222.5</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>20.506096654409877</v>
+        <v>44.880396611438272</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.75">
@@ -3681,20 +3651,20 @@
       <c r="H9">
         <v>335</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>573</v>
+      <c r="J9" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="K9">
-        <v>385</v>
+        <v>198</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>347.5</v>
+        <v>300.75</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>21.662179022434469</v>
+        <v>59.326954245098406</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.75">
@@ -3716,20 +3686,20 @@
       <c r="H10">
         <v>62</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>574</v>
+      <c r="J10" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="K10">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>2.1213203435596424</v>
+        <v>12.82575533838066</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.75">
@@ -3751,25 +3721,25 @@
       <c r="H11">
         <v>1340</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>575</v>
+      <c r="J11" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="K11">
-        <v>1473</v>
+        <v>755</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>1370</v>
+        <v>1190.5</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>59.653164207776939</v>
+        <v>251.48011849846102</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -3786,97 +3756,17 @@
         <v>2.1103934233705228</v>
       </c>
       <c r="K16">
-        <f>K5/K4</f>
-        <v>1.8044444444444445</v>
+        <f>K4/K5</f>
+        <v>0.53709028177113283</v>
       </c>
       <c r="N16">
         <f>AVERAGE(B16:K16)</f>
-        <v>2.056124120455352</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.75">
+        <v>1.7392855797870239</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10" x14ac:dyDescent="0.75">
       <c r="J27" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J28" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="K28">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J29" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="K29">
-        <v>5093</v>
-      </c>
-    </row>
-    <row r="30" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J30" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="K30">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J31" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="K31">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="32" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J32" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="K32">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J33" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="K33">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J34" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="K34">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J35" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="K35">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J36" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="K36">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.75">
-      <c r="J37" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="K37">
-        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -3889,29 +3779,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -4256,7 +4146,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -4291,29 +4181,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -4658,7 +4548,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -4692,7 +4582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E29B80-573C-4B3F-8B0C-C427ABDC6EA3}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -4700,16 +4590,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="I1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="J1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.75">
@@ -5334,16 +5224,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.75">
@@ -16108,29 +15998,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -16475,7 +16365,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -16510,29 +16400,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -16877,7 +16767,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -16912,29 +16802,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -17279,7 +17169,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -17314,29 +17204,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -17681,7 +17571,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -17716,29 +17606,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -18083,7 +17973,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -18118,29 +18008,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -18485,7 +18375,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -18520,29 +18410,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -18887,7 +18777,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">
@@ -18922,29 +18812,29 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="O1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.75">
@@ -19289,7 +19179,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.75">

--- a/analysis/qdot/qDotJosh.xlsx
+++ b/analysis/qdot/qDotJosh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\work\analysis\qdot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\qdot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83347266-F195-4A07-A88C-B9E5CF4EEEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDF76D8-3F64-4EC2-9A63-EB692D9533F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{E18FBB8C-60F8-4CD6-998A-8C3E0D9E7195}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="13" xr2:uid="{E18FBB8C-60F8-4CD6-998A-8C3E0D9E7195}"/>
   </bookViews>
   <sheets>
     <sheet name="05 LED" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="snp" sheetId="17" r:id="rId16"/>
     <sheet name="Sheet3" sheetId="18" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,9 +39,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1850,10 +1853,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2155,13 +2154,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBBFE45-8575-4AE4-B7C7-3D7336EDDF63}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>16.67895380412093</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>453.4343943725487</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>152.99509796068631</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>691.53466109805368</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>46.681768389811452</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>13.254716141811564</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>24.416951079117148</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>26.048032555262211</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>14.148763196831021</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
@@ -2521,12 +2520,12 @@
         <v>481.03917460015663</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>3.1390180878552973</v>
@@ -2561,9 +2560,9 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>364</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>3.6996621467371855</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>368</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>634.33370555252702</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>372</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>87.575681556011887</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>409.15095013943204</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>380</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>22.242976419535225</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>384</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>4.7434164902525691</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>388</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>10.54454835448157</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>392</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>15.658464164789597</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>396</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>5.8040933831219501</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>400</v>
       </c>
@@ -2923,12 +2922,12 @@
         <v>30.63494736408078</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>2.6235679214402619</v>
@@ -2963,9 +2962,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2985,7 +2984,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>324</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>7.1195154329490711</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>328</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>332</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>171.90186153733183</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>336</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>660.00241476830979</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>340</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>37.676252467569014</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>344</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>15.674421839417235</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>348</v>
       </c>
@@ -3223,7 +3222,7 @@
         <v>32.344821842143453</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>352</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>51.814573239581932</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>356</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>3.6742346141747673</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>360</v>
       </c>
@@ -3325,12 +3324,12 @@
         <v>65.492365967340035</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>1.9896288209606987</v>
@@ -3365,9 +3364,9 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +3386,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>526</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>16.926310879810757</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>527</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>1443.7521428555526</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>528</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>335.80723637229738</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>529</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>873.69173625484177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>530</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>73.411511358914282</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>531</v>
       </c>
@@ -3597,7 +3596,7 @@
         <v>24.457871943405053</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>532</v>
       </c>
@@ -3632,7 +3631,7 @@
         <v>44.880396611438272</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>533</v>
       </c>
@@ -3667,7 +3666,7 @@
         <v>59.326954245098406</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>534</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>12.82575533838066</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>535</v>
       </c>
@@ -3737,12 +3736,12 @@
         <v>251.48011849846102</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>2.2998306041784304</v>
@@ -3764,7 +3763,7 @@
         <v>1.7392855797870239</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.75">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>444</v>
       </c>
@@ -3782,9 +3781,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>404</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>6.6096520332011428</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>408</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>542.61150927712549</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>412</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>93.769664604284472</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>416</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>520.57054036893021</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>420</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>27.616797424755827</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>424</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>7.0710678118654755</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>428</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>8.6132165884761083</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>432</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>15.692354826475215</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>436</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>5.123475382979799</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>440</v>
       </c>
@@ -4144,12 +4143,12 @@
         <v>70.429042305003691</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>3.2963549920760697</v>
@@ -4180,13 +4179,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7361EFFA-A1E6-44E8-962A-6B31CEBD0258}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +4205,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>486</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>5.024937810560445</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>487</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>251.91963004101129</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>488</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>37.623131182824217</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>489</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>217.05644427199115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>490</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>17.483921184905864</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>491</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>1.0897247358851685</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>492</v>
       </c>
@@ -4444,7 +4443,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>493</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>3.9607448794387148</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>494</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>7.2284161474004804</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>495</v>
       </c>
@@ -4546,12 +4545,12 @@
         <v>212.63275265113791</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>4.0699708454810493</v>
@@ -4586,9 +4585,9 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>570</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>4.3333333333333335E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4638,7 +4637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>5.4545454545454557E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4744,7 +4743,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4818,7 +4817,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>2.3333333333333331E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>26</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>26</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>26</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>26</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I41">
         <v>26</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I42">
         <v>26</v>
       </c>
@@ -5220,9 +5219,9 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>571</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>8.0333333333333326E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5346,7 +5345,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5430,7 +5429,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5682,7 +5681,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5822,7 +5821,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5850,7 +5849,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5934,7 +5933,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5962,7 +5961,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -5976,7 +5975,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6004,7 +6003,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -6046,7 +6045,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6074,7 +6073,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -6102,7 +6101,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -6144,7 +6143,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -6158,7 +6157,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -6172,7 +6171,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -6256,7 +6255,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -6284,7 +6283,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -6298,7 +6297,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -6354,7 +6353,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -6396,7 +6395,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -6480,7 +6479,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>7.2058823529411731E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -6576,7 +6575,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -6590,7 +6589,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -6716,7 +6715,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -6758,7 +6757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -6856,7 +6855,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -6870,7 +6869,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -6898,7 +6897,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -6954,7 +6953,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
@@ -7024,7 +7023,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -7052,7 +7051,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -7122,7 +7121,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -7164,7 +7163,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -7234,7 +7233,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -7262,7 +7261,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -7304,7 +7303,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -7332,7 +7331,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2</v>
       </c>
@@ -7374,7 +7373,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2</v>
       </c>
@@ -7430,7 +7429,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2</v>
       </c>
@@ -7500,7 +7499,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2</v>
       </c>
@@ -7598,7 +7597,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2</v>
       </c>
@@ -7682,7 +7681,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2</v>
       </c>
@@ -7738,7 +7737,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
@@ -7752,7 +7751,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2</v>
       </c>
@@ -7780,7 +7779,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2</v>
       </c>
@@ -7892,7 +7891,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2</v>
       </c>
@@ -7920,7 +7919,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2</v>
       </c>
@@ -7948,7 +7947,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>3.1923076923076936E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3</v>
       </c>
@@ -8080,7 +8079,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
@@ -8108,7 +8107,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3</v>
       </c>
@@ -8150,7 +8149,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3</v>
       </c>
@@ -8178,7 +8177,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>3</v>
       </c>
@@ -8234,7 +8233,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -8248,7 +8247,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>3</v>
       </c>
@@ -8262,7 +8261,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>3</v>
       </c>
@@ -8276,7 +8275,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -8290,7 +8289,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>3</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>3</v>
       </c>
@@ -8318,7 +8317,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>0.26364864864864879</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4</v>
       </c>
@@ -8372,7 +8371,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4</v>
       </c>
@@ -8386,7 +8385,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -8484,7 +8483,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4</v>
       </c>
@@ -8512,7 +8511,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4</v>
       </c>
@@ -8610,7 +8609,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -8638,7 +8637,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4</v>
       </c>
@@ -8652,7 +8651,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4</v>
       </c>
@@ -8680,7 +8679,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4</v>
       </c>
@@ -8694,7 +8693,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>12.42</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4</v>
       </c>
@@ -8820,7 +8819,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4</v>
       </c>
@@ -8834,7 +8833,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4</v>
       </c>
@@ -8862,7 +8861,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4</v>
       </c>
@@ -8932,7 +8931,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4</v>
       </c>
@@ -8960,7 +8959,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4</v>
       </c>
@@ -8974,7 +8973,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4</v>
       </c>
@@ -8988,7 +8987,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4</v>
       </c>
@@ -9002,7 +9001,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4</v>
       </c>
@@ -9030,7 +9029,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4</v>
       </c>
@@ -9058,7 +9057,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4</v>
       </c>
@@ -9100,7 +9099,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4</v>
       </c>
@@ -9156,7 +9155,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4</v>
       </c>
@@ -9198,7 +9197,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>4</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>4</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4</v>
       </c>
@@ -9282,7 +9281,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>4</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>4</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>4</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4</v>
       </c>
@@ -9380,7 +9379,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>5</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>5.5909090909090929E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>5</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>5</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>5</v>
       </c>
@@ -9448,7 +9447,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>5</v>
       </c>
@@ -9462,7 +9461,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>5</v>
       </c>
@@ -9476,7 +9475,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>5</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>5</v>
       </c>
@@ -9518,7 +9517,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>5</v>
       </c>
@@ -9546,7 +9545,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>5</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>5</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>5</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>5</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5</v>
       </c>
@@ -9644,7 +9643,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>5</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>5</v>
       </c>
@@ -9672,7 +9671,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>5</v>
       </c>
@@ -9686,7 +9685,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>6</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>0.41078431372549018</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>6</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>6</v>
       </c>
@@ -9768,7 +9767,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>6</v>
       </c>
@@ -9782,7 +9781,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>6</v>
       </c>
@@ -9796,7 +9795,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>6</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>6</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>6</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>6</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>6</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>6</v>
       </c>
@@ -9880,7 +9879,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>6</v>
       </c>
@@ -9894,7 +9893,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>6</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>6</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>6</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>6</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>6</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>6</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>6</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>6</v>
       </c>
@@ -10006,7 +10005,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>6</v>
       </c>
@@ -10020,7 +10019,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>6</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -10048,7 +10047,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>6</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>6</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>6</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>6</v>
       </c>
@@ -10118,7 +10117,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>6</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>6</v>
       </c>
@@ -10146,7 +10145,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>6</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>6</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>6</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>6</v>
       </c>
@@ -10202,7 +10201,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>6</v>
       </c>
@@ -10216,7 +10215,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>6</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>6</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>6</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>6</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -10300,7 +10299,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>6</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>6</v>
       </c>
@@ -10328,7 +10327,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>6</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>6</v>
       </c>
@@ -10370,7 +10369,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>6</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>6</v>
       </c>
@@ -10398,7 +10397,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>6</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>6</v>
       </c>
@@ -10420,7 +10419,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>6</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>10.37</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>6</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>7</v>
       </c>
@@ -10474,7 +10473,7 @@
         <v>3.7272727272727263E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>7</v>
       </c>
@@ -10488,7 +10487,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>7</v>
       </c>
@@ -10502,7 +10501,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>7</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>7</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>7</v>
       </c>
@@ -10544,7 +10543,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>7</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>7</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>7</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>7</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>7</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>8</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>0.10061224489795921</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>8</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>8</v>
       </c>
@@ -10668,7 +10667,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>8</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>8</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>8</v>
       </c>
@@ -10710,7 +10709,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>8</v>
       </c>
@@ -10738,7 +10737,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>8</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>8</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>8</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>8</v>
       </c>
@@ -10808,7 +10807,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>8</v>
       </c>
@@ -10822,7 +10821,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>8</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>8</v>
       </c>
@@ -10850,7 +10849,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>8</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>8</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>8</v>
       </c>
@@ -10892,7 +10891,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>8</v>
       </c>
@@ -10906,7 +10905,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>8</v>
       </c>
@@ -10920,7 +10919,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>8</v>
       </c>
@@ -10934,7 +10933,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>8</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>8</v>
       </c>
@@ -10962,7 +10961,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>8</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>8</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>8</v>
       </c>
@@ -11004,7 +11003,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>8</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>8</v>
       </c>
@@ -11032,7 +11031,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>8</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>8</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>8</v>
       </c>
@@ -11074,7 +11073,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>8</v>
       </c>
@@ -11088,7 +11087,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>8</v>
       </c>
@@ -11102,7 +11101,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>8</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>8</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>8</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>8</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>8</v>
       </c>
@@ -11172,7 +11171,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="C420">
         <v>540</v>
       </c>
@@ -11183,7 +11182,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>8</v>
       </c>
@@ -11197,7 +11196,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>8</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>8</v>
       </c>
@@ -11225,7 +11224,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>8</v>
       </c>
@@ -11239,7 +11238,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>8</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>8</v>
       </c>
@@ -11267,7 +11266,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>8</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>8</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>8</v>
       </c>
@@ -11309,7 +11308,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>9</v>
       </c>
@@ -11335,7 +11334,7 @@
         <v>4.2499999999999996E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>9</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>9</v>
       </c>
@@ -11363,7 +11362,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9</v>
       </c>
@@ -11377,7 +11376,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>9</v>
       </c>
@@ -11391,7 +11390,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>9</v>
       </c>
@@ -11405,7 +11404,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>9</v>
       </c>
@@ -11419,7 +11418,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>9</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>10</v>
       </c>
@@ -11459,7 +11458,7 @@
         <v>6.7142857142857157E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>10</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>10</v>
       </c>
@@ -11487,7 +11486,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>10</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>10</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>10</v>
       </c>
@@ -11529,7 +11528,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>10</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>10</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>10</v>
       </c>
@@ -11571,7 +11570,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>10</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>10</v>
       </c>
@@ -11599,7 +11598,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>10</v>
       </c>
@@ -11613,7 +11612,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>10</v>
       </c>
@@ -11627,7 +11626,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>10</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>10</v>
       </c>
@@ -11655,7 +11654,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>10</v>
       </c>
@@ -11669,7 +11668,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>10</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>10</v>
       </c>
@@ -11697,7 +11696,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>10</v>
       </c>
@@ -11711,7 +11710,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>10</v>
       </c>
@@ -11725,7 +11724,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>10</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>10</v>
       </c>
@@ -11753,7 +11752,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>10</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>10</v>
       </c>
@@ -11781,7 +11780,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>10</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>10</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>10</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>10</v>
       </c>
@@ -11837,7 +11836,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>11</v>
       </c>
@@ -11863,7 +11862,7 @@
         <v>9.2698412698412669E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>11</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>11</v>
       </c>
@@ -11891,7 +11890,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>11</v>
       </c>
@@ -11905,7 +11904,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>11</v>
       </c>
@@ -11919,7 +11918,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>11</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>11</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>11</v>
       </c>
@@ -11961,7 +11960,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>11</v>
       </c>
@@ -11975,7 +11974,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>11</v>
       </c>
@@ -11989,7 +11988,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>11</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>11</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>11</v>
       </c>
@@ -12031,7 +12030,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>11</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>11</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>11</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>11</v>
       </c>
@@ -12087,7 +12086,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>11</v>
       </c>
@@ -12101,7 +12100,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>11</v>
       </c>
@@ -12115,7 +12114,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>11</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>11</v>
       </c>
@@ -12143,7 +12142,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>11</v>
       </c>
@@ -12157,7 +12156,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>11</v>
       </c>
@@ -12171,7 +12170,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>11</v>
       </c>
@@ -12185,7 +12184,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>11</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>11</v>
       </c>
@@ -12213,7 +12212,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>11</v>
       </c>
@@ -12227,7 +12226,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>11</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>11</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>11</v>
       </c>
@@ -12269,7 +12268,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>11</v>
       </c>
@@ -12283,7 +12282,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>11</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>11</v>
       </c>
@@ -12311,7 +12310,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>11</v>
       </c>
@@ -12325,7 +12324,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>11</v>
       </c>
@@ -12339,7 +12338,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>11</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>11</v>
       </c>
@@ -12367,7 +12366,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>11</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>11</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>11</v>
       </c>
@@ -12409,7 +12408,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>11</v>
       </c>
@@ -12423,7 +12422,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>11</v>
       </c>
@@ -12437,7 +12436,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>11</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>11</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>11</v>
       </c>
@@ -12479,7 +12478,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>11</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>11</v>
       </c>
@@ -12507,7 +12506,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>11</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>11</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>11</v>
       </c>
@@ -12549,7 +12548,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>11</v>
       </c>
@@ -12563,7 +12562,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>11</v>
       </c>
@@ -12577,7 +12576,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>11</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>11</v>
       </c>
@@ -12605,7 +12604,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>11</v>
       </c>
@@ -12619,7 +12618,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>11</v>
       </c>
@@ -12633,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>11</v>
       </c>
@@ -12647,7 +12646,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>11</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>11</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>11</v>
       </c>
@@ -12689,7 +12688,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>11</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>11</v>
       </c>
@@ -12717,7 +12716,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>11</v>
       </c>
@@ -12731,7 +12730,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>12</v>
       </c>
@@ -12757,7 +12756,7 @@
         <v>0.17431372549019605</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>12</v>
       </c>
@@ -12771,7 +12770,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>12</v>
       </c>
@@ -12785,7 +12784,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>12</v>
       </c>
@@ -12799,7 +12798,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>12</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>12</v>
       </c>
@@ -12827,7 +12826,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>12</v>
       </c>
@@ -12841,7 +12840,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>12</v>
       </c>
@@ -12855,7 +12854,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>12</v>
       </c>
@@ -12869,7 +12868,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>12</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>12</v>
       </c>
@@ -12897,7 +12896,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>12</v>
       </c>
@@ -12911,7 +12910,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>12</v>
       </c>
@@ -12925,7 +12924,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>12</v>
       </c>
@@ -12939,7 +12938,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>12</v>
       </c>
@@ -12953,7 +12952,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>12</v>
       </c>
@@ -12967,7 +12966,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>12</v>
       </c>
@@ -12981,7 +12980,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>12</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>12</v>
       </c>
@@ -13009,7 +13008,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>12</v>
       </c>
@@ -13023,7 +13022,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>12</v>
       </c>
@@ -13037,7 +13036,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>12</v>
       </c>
@@ -13051,7 +13050,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>12</v>
       </c>
@@ -13065,7 +13064,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>12</v>
       </c>
@@ -13079,7 +13078,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>12</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>12</v>
       </c>
@@ -13107,7 +13106,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>12</v>
       </c>
@@ -13121,7 +13120,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>12</v>
       </c>
@@ -13135,7 +13134,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>12</v>
       </c>
@@ -13149,7 +13148,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>12</v>
       </c>
@@ -13163,7 +13162,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>12</v>
       </c>
@@ -13177,7 +13176,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>12</v>
       </c>
@@ -13191,7 +13190,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>12</v>
       </c>
@@ -13205,7 +13204,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>12</v>
       </c>
@@ -13219,7 +13218,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>12</v>
       </c>
@@ -13233,7 +13232,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>12</v>
       </c>
@@ -13247,7 +13246,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>12</v>
       </c>
@@ -13261,7 +13260,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>12</v>
       </c>
@@ -13275,7 +13274,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>12</v>
       </c>
@@ -13289,7 +13288,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>12</v>
       </c>
@@ -13303,7 +13302,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>12</v>
       </c>
@@ -13317,7 +13316,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>12</v>
       </c>
@@ -13331,7 +13330,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>12</v>
       </c>
@@ -13345,7 +13344,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>12</v>
       </c>
@@ -13359,7 +13358,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>12</v>
       </c>
@@ -13373,7 +13372,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>12</v>
       </c>
@@ -13387,7 +13386,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>12</v>
       </c>
@@ -13401,7 +13400,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>12</v>
       </c>
@@ -13415,7 +13414,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>12</v>
       </c>
@@ -13429,7 +13428,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>12</v>
       </c>
@@ -13443,7 +13442,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>12</v>
       </c>
@@ -13457,7 +13456,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>13</v>
       </c>
@@ -13483,7 +13482,7 @@
         <v>7.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>13</v>
       </c>
@@ -13497,7 +13496,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>13</v>
       </c>
@@ -13511,7 +13510,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>13</v>
       </c>
@@ -13525,7 +13524,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>13</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>14</v>
       </c>
@@ -13565,7 +13564,7 @@
         <v>8.3181818181818232E-2</v>
       </c>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>14</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>14</v>
       </c>
@@ -13593,7 +13592,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>14</v>
       </c>
@@ -13607,7 +13606,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>14</v>
       </c>
@@ -13621,7 +13620,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>14</v>
       </c>
@@ -13635,7 +13634,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>14</v>
       </c>
@@ -13649,7 +13648,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>14</v>
       </c>
@@ -13663,7 +13662,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>14</v>
       </c>
@@ -13677,7 +13676,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>14</v>
       </c>
@@ -13691,7 +13690,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>14</v>
       </c>
@@ -13705,7 +13704,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>14</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>14</v>
       </c>
@@ -13733,7 +13732,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>14</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>14</v>
       </c>
@@ -13761,7 +13760,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>14</v>
       </c>
@@ -13775,7 +13774,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>14</v>
       </c>
@@ -13789,7 +13788,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>14</v>
       </c>
@@ -13803,7 +13802,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>14</v>
       </c>
@@ -13817,7 +13816,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>14</v>
       </c>
@@ -13831,7 +13830,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>14</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>14</v>
       </c>
@@ -13859,7 +13858,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>15</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>4.7857142857142869E-2</v>
       </c>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>15</v>
       </c>
@@ -13899,7 +13898,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>15</v>
       </c>
@@ -13913,7 +13912,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>15</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>15</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>15</v>
       </c>
@@ -13955,7 +13954,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>15</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>15</v>
       </c>
@@ -13983,7 +13982,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>15</v>
       </c>
@@ -13997,7 +13996,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>15</v>
       </c>
@@ -14011,7 +14010,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>15</v>
       </c>
@@ -14025,7 +14024,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>15</v>
       </c>
@@ -14039,7 +14038,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>15</v>
       </c>
@@ -14053,7 +14052,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>15</v>
       </c>
@@ -14067,7 +14066,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>16</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>6.3750000000000001E-2</v>
       </c>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>16</v>
       </c>
@@ -14107,7 +14106,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>16</v>
       </c>
@@ -14121,7 +14120,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>16</v>
       </c>
@@ -14135,7 +14134,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>16</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>16</v>
       </c>
@@ -14163,7 +14162,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>16</v>
       </c>
@@ -14177,7 +14176,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>16</v>
       </c>
@@ -14191,7 +14190,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>17</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>6.7446808510638293E-2</v>
       </c>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>17</v>
       </c>
@@ -14231,7 +14230,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>17</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>17</v>
       </c>
@@ -14259,7 +14258,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>17</v>
       </c>
@@ -14273,7 +14272,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>17</v>
       </c>
@@ -14287,7 +14286,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>17</v>
       </c>
@@ -14301,7 +14300,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>17</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>17</v>
       </c>
@@ -14329,7 +14328,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>17</v>
       </c>
@@ -14343,7 +14342,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>17</v>
       </c>
@@ -14357,7 +14356,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>17</v>
       </c>
@@ -14371,7 +14370,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>17</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>17</v>
       </c>
@@ -14399,7 +14398,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>17</v>
       </c>
@@ -14413,7 +14412,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>17</v>
       </c>
@@ -14427,7 +14426,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>17</v>
       </c>
@@ -14441,7 +14440,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>17</v>
       </c>
@@ -14455,7 +14454,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>17</v>
       </c>
@@ -14469,7 +14468,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>17</v>
       </c>
@@ -14483,7 +14482,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>17</v>
       </c>
@@ -14497,7 +14496,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>17</v>
       </c>
@@ -14511,7 +14510,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>17</v>
       </c>
@@ -14525,7 +14524,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>17</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>17</v>
       </c>
@@ -14553,7 +14552,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>17</v>
       </c>
@@ -14567,7 +14566,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>17</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>17</v>
       </c>
@@ -14595,7 +14594,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>17</v>
       </c>
@@ -14609,7 +14608,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>17</v>
       </c>
@@ -14623,7 +14622,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>17</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>17</v>
       </c>
@@ -14651,7 +14650,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>17</v>
       </c>
@@ -14665,7 +14664,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>17</v>
       </c>
@@ -14679,7 +14678,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>17</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>17</v>
       </c>
@@ -14707,7 +14706,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>17</v>
       </c>
@@ -14721,7 +14720,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>17</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>17</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>17</v>
       </c>
@@ -14763,7 +14762,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>17</v>
       </c>
@@ -14777,7 +14776,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>17</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>17</v>
       </c>
@@ -14805,7 +14804,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>17</v>
       </c>
@@ -14819,7 +14818,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>17</v>
       </c>
@@ -14833,7 +14832,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>17</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>17</v>
       </c>
@@ -14861,7 +14860,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>18</v>
       </c>
@@ -14887,7 +14886,7 @@
         <v>7.0512820512820526E-2</v>
       </c>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>18</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>18</v>
       </c>
@@ -14915,7 +14914,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>18</v>
       </c>
@@ -14929,7 +14928,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>18</v>
       </c>
@@ -14943,7 +14942,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>18</v>
       </c>
@@ -14957,7 +14956,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>18</v>
       </c>
@@ -14971,7 +14970,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>18</v>
       </c>
@@ -14985,7 +14984,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>18</v>
       </c>
@@ -14999,7 +14998,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>18</v>
       </c>
@@ -15013,7 +15012,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>18</v>
       </c>
@@ -15027,7 +15026,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>18</v>
       </c>
@@ -15041,7 +15040,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>18</v>
       </c>
@@ -15055,7 +15054,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>18</v>
       </c>
@@ -15069,7 +15068,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>18</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>18</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>18</v>
       </c>
@@ -15111,7 +15110,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>18</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>18</v>
       </c>
@@ -15139,7 +15138,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>18</v>
       </c>
@@ -15153,7 +15152,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>18</v>
       </c>
@@ -15167,7 +15166,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>18</v>
       </c>
@@ -15181,7 +15180,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>18</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>18</v>
       </c>
@@ -15209,7 +15208,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>18</v>
       </c>
@@ -15223,7 +15222,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>18</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>18</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>18</v>
       </c>
@@ -15265,7 +15264,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>18</v>
       </c>
@@ -15279,7 +15278,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>18</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>18</v>
       </c>
@@ -15307,7 +15306,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>18</v>
       </c>
@@ -15321,7 +15320,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>18</v>
       </c>
@@ -15335,7 +15334,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>18</v>
       </c>
@@ -15349,7 +15348,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>18</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>18</v>
       </c>
@@ -15377,7 +15376,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>18</v>
       </c>
@@ -15391,7 +15390,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>18</v>
       </c>
@@ -15405,7 +15404,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>18</v>
       </c>
@@ -15419,7 +15418,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>25</v>
       </c>
@@ -15445,7 +15444,7 @@
         <v>0.17125000000000001</v>
       </c>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>25</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>25</v>
       </c>
@@ -15473,7 +15472,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>25</v>
       </c>
@@ -15487,7 +15486,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>25</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>25</v>
       </c>
@@ -15515,7 +15514,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>25</v>
       </c>
@@ -15529,7 +15528,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>25</v>
       </c>
@@ -15543,7 +15542,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>26</v>
       </c>
@@ -15569,7 +15568,7 @@
         <v>4.5416666666666682E-2</v>
       </c>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>26</v>
       </c>
@@ -15583,7 +15582,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>26</v>
       </c>
@@ -15597,7 +15596,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>26</v>
       </c>
@@ -15611,7 +15610,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>26</v>
       </c>
@@ -15625,7 +15624,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>26</v>
       </c>
@@ -15639,7 +15638,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>26</v>
       </c>
@@ -15653,7 +15652,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>26</v>
       </c>
@@ -15667,7 +15666,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>26</v>
       </c>
@@ -15681,7 +15680,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>26</v>
       </c>
@@ -15695,7 +15694,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>26</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>26</v>
       </c>
@@ -15723,7 +15722,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>26</v>
       </c>
@@ -15737,7 +15736,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>26</v>
       </c>
@@ -15751,7 +15750,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>26</v>
       </c>
@@ -15765,7 +15764,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>26</v>
       </c>
@@ -15779,7 +15778,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>26</v>
       </c>
@@ -15793,7 +15792,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>26</v>
       </c>
@@ -15807,7 +15806,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>26</v>
       </c>
@@ -15821,7 +15820,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>26</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>26</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>26</v>
       </c>
@@ -15863,7 +15862,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>26</v>
       </c>
@@ -15877,7 +15876,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>26</v>
       </c>
@@ -15891,7 +15890,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>27</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>27</v>
       </c>
@@ -15931,7 +15930,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>27</v>
       </c>
@@ -15945,7 +15944,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>27</v>
       </c>
@@ -15959,7 +15958,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>27</v>
       </c>
@@ -15987,7 +15986,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16001,9 +16000,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -16057,7 +16056,7 @@
         <v>13.322912594474229</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -16091,7 +16090,7 @@
         <v>401.7233967545331</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>132</v>
       </c>
@@ -16125,7 +16124,7 @@
         <v>134.46444697391203</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -16159,7 +16158,7 @@
         <v>734.61669426987567</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>140</v>
       </c>
@@ -16193,7 +16192,7 @@
         <v>43.514365444069156</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>144</v>
       </c>
@@ -16227,7 +16226,7 @@
         <v>10.36822067666386</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
@@ -16261,7 +16260,7 @@
         <v>19.525624189766635</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
@@ -16295,7 +16294,7 @@
         <v>19.992185973524755</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>156</v>
       </c>
@@ -16329,7 +16328,7 @@
         <v>17.541023345289748</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>160</v>
       </c>
@@ -16363,12 +16362,12 @@
         <v>578.51463896776204</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>3.5136363636363637</v>
@@ -16403,9 +16402,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -16425,7 +16424,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
@@ -16459,7 +16458,7 @@
         <v>15.35211711784404</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
@@ -16493,7 +16492,7 @@
         <v>544.01074208144087</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
@@ -16527,7 +16526,7 @@
         <v>135.21348860228406</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>176</v>
       </c>
@@ -16561,7 +16560,7 @@
         <v>476.65730614352276</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -16595,7 +16594,7 @@
         <v>24.944939366532843</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>184</v>
       </c>
@@ -16629,7 +16628,7 @@
         <v>12.397076268217438</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>188</v>
       </c>
@@ -16663,7 +16662,7 @@
         <v>18.308126610879661</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>192</v>
       </c>
@@ -16697,7 +16696,7 @@
         <v>26.677471769266294</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>196</v>
       </c>
@@ -16731,7 +16730,7 @@
         <v>12.497499749949988</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>200</v>
       </c>
@@ -16765,12 +16764,12 @@
         <v>279.7592715174959</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>2.3223467369808835</v>
@@ -16805,9 +16804,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>244</v>
       </c>
@@ -16861,7 +16860,7 @@
         <v>11.247221879201993</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>248</v>
       </c>
@@ -16895,7 +16894,7 @@
         <v>545.4834438367493</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>252</v>
       </c>
@@ -16929,7 +16928,7 @@
         <v>110.75959326396969</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>256</v>
       </c>
@@ -16963,7 +16962,7 @@
         <v>434.9675275236072</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>260</v>
       </c>
@@ -16997,7 +16996,7 @@
         <v>26.214261385741921</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>264</v>
       </c>
@@ -17031,7 +17030,7 @@
         <v>10.638961415476606</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>268</v>
       </c>
@@ -17065,7 +17064,7 @@
         <v>12.893796958227627</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>272</v>
       </c>
@@ -17099,7 +17098,7 @@
         <v>26.195180854500698</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>276</v>
       </c>
@@ -17133,7 +17132,7 @@
         <v>8.4852813742385695</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>280</v>
       </c>
@@ -17167,12 +17166,12 @@
         <v>361.93714924003035</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>2.4117315284827976</v>
@@ -17207,9 +17206,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -17229,7 +17228,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>204</v>
       </c>
@@ -17263,7 +17262,7 @@
         <v>8.3479039285320003</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>208</v>
       </c>
@@ -17297,7 +17296,7 @@
         <v>241.48227160601252</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>212</v>
       </c>
@@ -17331,7 +17330,7 @@
         <v>37.864066078539423</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>216</v>
       </c>
@@ -17365,7 +17364,7 @@
         <v>99.83830677650738</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>220</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>9.4174041009186809</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>224</v>
       </c>
@@ -17433,7 +17432,7 @@
         <v>5.9319052588523364</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>228</v>
       </c>
@@ -17467,7 +17466,7 @@
         <v>6.7268120235368549</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>232</v>
       </c>
@@ -17501,7 +17500,7 @@
         <v>10.425329730996522</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>236</v>
       </c>
@@ -17535,7 +17534,7 @@
         <v>3.5707142142714252</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>240</v>
       </c>
@@ -17569,12 +17568,12 @@
         <v>86.680447622286763</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>2.394160583941606</v>
@@ -17609,9 +17608,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -17631,7 +17630,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -17665,7 +17664,7 @@
         <v>11.188722000300123</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -17699,7 +17698,7 @@
         <v>505.02790764471621</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -17733,7 +17732,7 @@
         <v>140.56382002492677</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -17767,7 +17766,7 @@
         <v>379.57509138509073</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>36.204281514760105</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -17835,7 +17834,7 @@
         <v>13.322912594474229</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -17869,7 +17868,7 @@
         <v>15.400892831261439</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -17903,7 +17902,7 @@
         <v>27.526123955253851</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -17937,7 +17936,7 @@
         <v>15.35211711784404</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -17971,12 +17970,12 @@
         <v>352.51905976840459</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>2.1435941530524505</v>
@@ -18011,9 +18010,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -18033,7 +18032,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>284</v>
       </c>
@@ -18067,7 +18066,7 @@
         <v>9.0277350426338945</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>288</v>
       </c>
@@ -18101,7 +18100,7 @@
         <v>464.58852762417627</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>292</v>
       </c>
@@ -18135,7 +18134,7 @@
         <v>71.292969499102782</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>296</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v>585.38299428664652</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>300</v>
       </c>
@@ -18203,7 +18202,7 @@
         <v>33.184145310675099</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>304</v>
       </c>
@@ -18237,7 +18236,7 @@
         <v>8.5732140997411239</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>308</v>
       </c>
@@ -18271,7 +18270,7 @@
         <v>12.07010770457331</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>312</v>
       </c>
@@ -18305,7 +18304,7 @@
         <v>19.122957407263137</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>316</v>
       </c>
@@ -18339,7 +18338,7 @@
         <v>10.40132203135736</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>320</v>
       </c>
@@ -18373,12 +18372,12 @@
         <v>145.8543794337352</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>3.2513297872340425</v>
@@ -18413,9 +18412,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -18435,7 +18434,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -18469,7 +18468,7 @@
         <v>8.6998563206526569</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -18503,7 +18502,7 @@
         <v>242.80753695056504</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -18537,7 +18536,7 @@
         <v>112.59967806348294</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -18571,7 +18570,7 @@
         <v>461.57847382649896</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>32.112108308237879</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -18639,7 +18638,7 @@
         <v>7.8262379212492643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
@@ -18673,7 +18672,7 @@
         <v>11.979148550710939</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -18707,7 +18706,7 @@
         <v>17.698870020427858</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -18741,7 +18740,7 @@
         <v>14.044571905188139</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -18775,12 +18774,12 @@
         <v>331.88740560617845</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>2.5654237288135593</v>
@@ -18815,9 +18814,9 @@
       <selection activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>446</v>
       </c>
@@ -18871,7 +18870,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>447</v>
       </c>
@@ -18905,7 +18904,7 @@
         <v>29.236107812087436</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>448</v>
       </c>
@@ -18939,7 +18938,7 @@
         <v>38.505681398983192</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>449</v>
       </c>
@@ -18973,7 +18972,7 @@
         <v>483.71840982125127</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>450</v>
       </c>
@@ -19007,7 +19006,7 @@
         <v>21.981526334629269</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>451</v>
       </c>
@@ -19041,7 +19040,7 @@
         <v>4.6029881598804918</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>452</v>
       </c>
@@ -19075,7 +19074,7 @@
         <v>5.6124860801609122</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>453</v>
       </c>
@@ -19109,7 +19108,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>454</v>
       </c>
@@ -19143,7 +19142,7 @@
         <v>4.0620192023179804</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>455</v>
       </c>
@@ -19177,12 +19176,12 @@
         <v>154.12494931061616</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B5/B4</f>
         <v>5.2986627043090637</v>

--- a/analysis/qdot/qDotJosh.xlsx
+++ b/analysis/qdot/qDotJosh.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehea_5801ztl\work\analysis\qdot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDF76D8-3F64-4EC2-9A63-EB692D9533F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7EF385-8C71-45F9-90F4-22C9E601D209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="13" xr2:uid="{E18FBB8C-60F8-4CD6-998A-8C3E0D9E7195}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{E18FBB8C-60F8-4CD6-998A-8C3E0D9E7195}"/>
   </bookViews>
   <sheets>
     <sheet name="05 LED" sheetId="4" r:id="rId1"/>
     <sheet name="06 LED" sheetId="5" r:id="rId2"/>
     <sheet name="07 LED" sheetId="6" r:id="rId3"/>
-    <sheet name="10 LED" sheetId="8" r:id="rId4"/>
-    <sheet name="13 LED" sheetId="7" r:id="rId5"/>
-    <sheet name="25 LED" sheetId="1" r:id="rId6"/>
-    <sheet name="26 LED" sheetId="9" r:id="rId7"/>
-    <sheet name="27 LED" sheetId="2" r:id="rId8"/>
-    <sheet name="01 Laser" sheetId="12" r:id="rId9"/>
-    <sheet name="02 Laser" sheetId="10" r:id="rId10"/>
-    <sheet name="08 Laser" sheetId="3" r:id="rId11"/>
-    <sheet name="11 Laser" sheetId="15" r:id="rId12"/>
-    <sheet name="12 Laser" sheetId="11" r:id="rId13"/>
-    <sheet name="15 Laser" sheetId="13" r:id="rId14"/>
-    <sheet name="SNP noPK" sheetId="16" r:id="rId15"/>
-    <sheet name="snp" sheetId="17" r:id="rId16"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId17"/>
+    <sheet name="09 LED" sheetId="19" r:id="rId4"/>
+    <sheet name="10 LED" sheetId="8" r:id="rId5"/>
+    <sheet name="13 LED" sheetId="7" r:id="rId6"/>
+    <sheet name="25 LED" sheetId="1" r:id="rId7"/>
+    <sheet name="26 LED" sheetId="9" r:id="rId8"/>
+    <sheet name="27 LED" sheetId="2" r:id="rId9"/>
+    <sheet name="01 Laser" sheetId="12" r:id="rId10"/>
+    <sheet name="02 Laser" sheetId="10" r:id="rId11"/>
+    <sheet name="08 Laser" sheetId="3" r:id="rId12"/>
+    <sheet name="11 Laser" sheetId="15" r:id="rId13"/>
+    <sheet name="12 Laser" sheetId="11" r:id="rId14"/>
+    <sheet name="15 Laser" sheetId="13" r:id="rId15"/>
+    <sheet name="SNP noPK" sheetId="16" r:id="rId16"/>
+    <sheet name="snp" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="615">
   <si>
     <t>q7</t>
   </si>
@@ -1777,13 +1778,133 @@
   </si>
   <si>
     <t>melt noise</t>
+  </si>
+  <si>
+    <t>[34]CH 415</t>
+  </si>
+  <si>
+    <t>[34]CH 445</t>
+  </si>
+  <si>
+    <t>[34]CH 480</t>
+  </si>
+  <si>
+    <t>[34]CH 515</t>
+  </si>
+  <si>
+    <t>[34]CH 555</t>
+  </si>
+  <si>
+    <t>[34]CH 590</t>
+  </si>
+  <si>
+    <t>[34]CH 630</t>
+  </si>
+  <si>
+    <t>[34]CH 680</t>
+  </si>
+  <si>
+    <t>[34]CH CLR</t>
+  </si>
+  <si>
+    <t>[34]CH NIR</t>
+  </si>
+  <si>
+    <t>[42]CH 415</t>
+  </si>
+  <si>
+    <t>[42]CH 445</t>
+  </si>
+  <si>
+    <t>[42]CH 480</t>
+  </si>
+  <si>
+    <t>[42]CH 515</t>
+  </si>
+  <si>
+    <t>[42]CH 555</t>
+  </si>
+  <si>
+    <t>[42]CH 590</t>
+  </si>
+  <si>
+    <t>[42]CH 630</t>
+  </si>
+  <si>
+    <t>[42]CH 680</t>
+  </si>
+  <si>
+    <t>[42]CH CLR</t>
+  </si>
+  <si>
+    <t>[42]CH NIR</t>
+  </si>
+  <si>
+    <t>[56]CH 415</t>
+  </si>
+  <si>
+    <t>[56]CH 445</t>
+  </si>
+  <si>
+    <t>[56]CH 480</t>
+  </si>
+  <si>
+    <t>[56]CH 515</t>
+  </si>
+  <si>
+    <t>[56]CH 555</t>
+  </si>
+  <si>
+    <t>[56]CH 590</t>
+  </si>
+  <si>
+    <t>[56]CH 630</t>
+  </si>
+  <si>
+    <t>[56]CH 680</t>
+  </si>
+  <si>
+    <t>[56]CH CLR</t>
+  </si>
+  <si>
+    <t>[56]CH NIR</t>
+  </si>
+  <si>
+    <t>[64]CH 415</t>
+  </si>
+  <si>
+    <t>[64]CH 445</t>
+  </si>
+  <si>
+    <t>[64]CH 480</t>
+  </si>
+  <si>
+    <t>[64]CH 515</t>
+  </si>
+  <si>
+    <t>[64]CH 555</t>
+  </si>
+  <si>
+    <t>[64]CH 590</t>
+  </si>
+  <si>
+    <t>[64]CH 630</t>
+  </si>
+  <si>
+    <t>[64]CH 680</t>
+  </si>
+  <si>
+    <t>[64]CH CLR</t>
+  </si>
+  <si>
+    <t>[64]CH NIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1812,16 +1933,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1829,15 +1962,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2553,6 +2749,408 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41D04E-533E-4D59-BC4F-207C5B54A9DD}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>566</v>
+      </c>
+      <c r="O1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(B2,E2,H2,K2)</f>
+        <v>80.5</v>
+      </c>
+      <c r="O2">
+        <f>_xlfn.STDEV.P(B2,E2,H2,K2)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3">
+        <v>679</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E3">
+        <v>761</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H3">
+        <v>715</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="K3">
+        <v>711</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="0">AVERAGE(B3,E3,H3,K3)</f>
+        <v>716.5</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O11" si="1">_xlfn.STDEV.P(B3,E3,H3,K3)</f>
+        <v>29.236107812087436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4">
+        <v>673</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4">
+        <v>607</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H4">
+        <v>627</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K4">
+        <v>566</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>618.25</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>38.505681398983192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5">
+        <v>3566</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5">
+        <v>2855</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H5">
+        <v>2957</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K5">
+        <v>2202</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>2895</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>483.71840982125127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6">
+        <v>329</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6">
+        <v>284</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H6">
+        <v>308</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K6">
+        <v>272</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>298.25</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>21.981526334629269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H7">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="K7">
+        <v>51</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>57.25</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>4.6029881598804918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8">
+        <v>98</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8">
+        <v>110</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K8">
+        <v>97</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>5.6124860801609122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E9">
+        <v>97</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H9">
+        <v>97</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="K9">
+        <v>86</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E10">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H10">
+        <v>101</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K10">
+        <v>91</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>4.0620192023179804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11">
+        <v>2165</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11">
+        <v>2260</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H11">
+        <v>2535</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K11">
+        <v>2488</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2362</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>154.12494931061616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B5/B4</f>
+        <v>5.2986627043090637</v>
+      </c>
+      <c r="E16">
+        <f>E5/E4</f>
+        <v>4.703459637561779</v>
+      </c>
+      <c r="H16">
+        <f>H5/H4</f>
+        <v>4.7161084529505581</v>
+      </c>
+      <c r="K16">
+        <f>K5/K4</f>
+        <v>3.8904593639575973</v>
+      </c>
+      <c r="N16">
+        <f>AVERAGE(B16:K16)</f>
+        <v>4.6521725396947495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CD8106-0017-4E2E-9CDC-6E2B8286C83C}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -2954,7 +3552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CD12B6-569D-4D06-BCEF-15786DAD3022}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -3356,7 +3954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40CE7BA-D90C-4974-8E16-6FA97CC33C6E}">
   <dimension ref="A1:O27"/>
   <sheetViews>
@@ -3773,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE70DB7-2D90-4591-8C6A-7393E63676F9}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -4175,11 +4773,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7361EFFA-A1E6-44E8-962A-6B31CEBD0258}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -4577,7 +5175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E29B80-573C-4B3F-8B0C-C427ABDC6EA3}">
   <dimension ref="A1:L42"/>
   <sheetViews>
@@ -5211,7 +5809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F50C6C-F7CD-4765-BEE6-EDD53E81EBB9}">
   <dimension ref="A1:N751"/>
   <sheetViews>
@@ -15980,7 +16578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718588F0-0350-4643-A5BF-0458250A4D1D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16797,11 +17395,484 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93B5553-838D-41FA-BF76-A29C62A9AD36}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="N1" t="s">
+        <v>566</v>
+      </c>
+      <c r="O1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="8">
+        <v>137</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2" s="8">
+        <v>169</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="H2" s="8">
+        <v>162</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="K2" s="8">
+        <v>161</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="N2">
+        <f>AVERAGE(B2,E2,H2,K2)</f>
+        <v>157.25</v>
+      </c>
+      <c r="O2">
+        <f>_xlfn.STDEV.P(B2,E2,H2,K2)</f>
+        <v>12.090802289343747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3958</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4466</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="H3" s="8">
+        <v>4256</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="K3" s="8">
+        <v>4732</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="0">AVERAGE(B3,E3,H3,K3)</f>
+        <v>4353</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O11" si="1">_xlfn.STDEV.P(B3,E3,H3,K3)</f>
+        <v>283.65648238670661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1783</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2185</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2076</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2105</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>2037.25</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>152.12227811862402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4882</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6483</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6182</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="K5" s="8">
+        <v>5531</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>5769.5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>617.20681298896886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B6" s="8">
+        <v>589</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" s="8">
+        <v>747</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="H6" s="8">
+        <v>723</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="K6" s="8">
+        <v>667</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>681.5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>60.784455249677116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B7" s="8">
+        <v>153</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E7" s="8">
+        <v>183</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="H7" s="8">
+        <v>176</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="K7" s="8">
+        <v>181</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>173.25</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>11.96609794377432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B8" s="8">
+        <v>239</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E8" s="8">
+        <v>286</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H8" s="8">
+        <v>275</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="K8" s="8">
+        <v>286</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>271.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>19.293781381574739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B9" s="8">
+        <v>295</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" s="8">
+        <v>356</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="H9" s="8">
+        <v>341</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="K9" s="8">
+        <v>347</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>334.75</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>23.562417108607512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" s="8">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="E10" s="8">
+        <v>120</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="H10" s="8">
+        <v>108</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="K10" s="8">
+        <v>108</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>106.75</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>10.328964130056798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3296</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4077</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3790</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3927</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>3772.5</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>293.23582659695592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B5/B4</f>
+        <v>2.7380818844643859</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16">
+        <f>E5/E4</f>
+        <v>2.9670480549199083</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16">
+        <f>H5/H4</f>
+        <v>2.9778420038535645</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16">
+        <f>K5/K4</f>
+        <v>2.6275534441805224</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16">
+        <f>AVERAGE(B16:K16)</f>
+        <v>2.8276313468545955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C74005A-F3FA-4A75-B1F3-83529C289472}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+      <selection activeCell="B2" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17198,7 +18269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4AB2CF-501D-44ED-BA5A-BD2FA79508D9}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -17600,7 +18671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCCA128-A2D3-44F5-900F-6557BD16E74D}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -18002,7 +19073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA9272-2B72-4AE2-B13C-CFA409A3EB4C}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -18404,7 +19475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98927DA6-6B01-4552-B44B-263511B45EF5}">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -18804,406 +19875,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41D04E-533E-4D59-BC4F-207C5B54A9DD}">
-  <dimension ref="A1:O16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>566</v>
-      </c>
-      <c r="O1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2">
-        <v>79</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H2">
-        <v>83</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K2">
-        <v>80</v>
-      </c>
-      <c r="N2">
-        <f>AVERAGE(B2,E2,H2,K2)</f>
-        <v>80.5</v>
-      </c>
-      <c r="O2">
-        <f>_xlfn.STDEV.P(B2,E2,H2,K2)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B3">
-        <v>679</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="E3">
-        <v>761</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3">
-        <v>715</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="K3">
-        <v>711</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N11" si="0">AVERAGE(B3,E3,H3,K3)</f>
-        <v>716.5</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O11" si="1">_xlfn.STDEV.P(B3,E3,H3,K3)</f>
-        <v>29.236107812087436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B4">
-        <v>673</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E4">
-        <v>607</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H4">
-        <v>627</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="K4">
-        <v>566</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>618.25</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>38.505681398983192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B5">
-        <v>3566</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E5">
-        <v>2855</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H5">
-        <v>2957</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K5">
-        <v>2202</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>2895</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>483.71840982125127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B6">
-        <v>329</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6">
-        <v>284</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H6">
-        <v>308</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="K6">
-        <v>272</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>298.25</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>21.981526334629269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E7">
-        <v>57</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H7">
-        <v>57</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="K7">
-        <v>51</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>57.25</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>4.6029881598804918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8">
-        <v>107</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E8">
-        <v>98</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="H8">
-        <v>110</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="K8">
-        <v>97</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>5.6124860801609122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B9">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E9">
-        <v>97</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="H9">
-        <v>97</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="K9">
-        <v>86</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>97.5</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B10">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E10">
-        <v>92</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H10">
-        <v>101</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="K10">
-        <v>91</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>4.0620192023179804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B11">
-        <v>2165</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E11">
-        <v>2260</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H11">
-        <v>2535</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="K11">
-        <v>2488</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>2362</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>154.12494931061616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f>B5/B4</f>
-        <v>5.2986627043090637</v>
-      </c>
-      <c r="E16">
-        <f>E5/E4</f>
-        <v>4.703459637561779</v>
-      </c>
-      <c r="H16">
-        <f>H5/H4</f>
-        <v>4.7161084529505581</v>
-      </c>
-      <c r="K16">
-        <f>K5/K4</f>
-        <v>3.8904593639575973</v>
-      </c>
-      <c r="N16">
-        <f>AVERAGE(B16:K16)</f>
-        <v>4.6521725396947495</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>